--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A1D7E-A6B7-47F0-85DD-D3EA8A0431CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267307A8-D80C-45DA-94D6-2CCABCE68154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
   <si>
     <t>Application Name:</t>
   </si>
@@ -87,12 +87,6 @@
     <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
   </si>
   <si>
-    <t>RepGen:TABLE;TECHNICAL_SIZING</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;TECHNO_LOC</t>
-  </si>
-  <si>
     <t>Application characteristics</t>
   </si>
   <si>
@@ -102,115 +96,181 @@
     <t>Findings summary for CAST under PCI-DSS-V3.1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=PCI-DSS-V3.1,MORE=true</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-1</t>
-  </si>
-  <si>
     <t>CAST findings for Requirement 1 - Install and maintain a firewall configuration to protect cardholder data</t>
   </si>
   <si>
     <t>CAST findings details for Requirement 1 - Install and maintain a firewall configuration to protect cardholder data</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=PCI-DSS-V3.1-Req-1,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings for Requirement 2 - Do not use vendor-supplied defaults for system passwords and other security parameters</t>
   </si>
   <si>
     <t>CAST findings details for Requirement 2 - Do not use vendor-supplied defaults for system passwords and other security parameters</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-2</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=PCI-DSS-V3.1-Req-2,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-3</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=PCI-DSS-V3.1-Req-3,COUNT=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings details for Requirement 3 - Protect stored cardholder data </t>
   </si>
   <si>
     <t>CAST findings for Requirement 3 - Protect stored cardholder data</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=PCI-DSS-V3.1-Req-4,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-4</t>
-  </si>
-  <si>
     <t>CAST findings for Requirement 4 - Encrypt transmission of cardholder data across open, public networks</t>
   </si>
   <si>
     <t>CAST findings details for Requirement 4 - Encrypt transmission of cardholder data across open, public networks</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=PCI-DSS-V3.1-Req-5,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-5</t>
-  </si>
-  <si>
     <t>CAST findings for Requirement 5 - Protect all systems against malware and regularly update anti-virus software or programs</t>
   </si>
   <si>
     <t>CAST findings details for Requirement 5 - Protect all systems against malware and regularly update anti-virus software or programs</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=PCI-DSS-V3.1-Req-6,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-6</t>
-  </si>
-  <si>
     <t>CAST findings for Requirement 6 - Develop and maintain secure systems and applications</t>
   </si>
   <si>
     <t>CAST findings details for Requirement 6 - Develop and maintain secure systems and applications</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=PCI-DSS-V3.1-Req-7,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for Requirement 7 - Restrict access to cardholder data by business need to know </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings details for Requirement 7 - Restrict access to cardholder data by business need to know </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=PCI-DSS-V3.1-Req-8,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for Requirement 8 - Identify and authenticate access to system components </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings details for Requirement 8 - Identify and authenticate access to system components </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=PCI-DSS-V3.1-Req-10,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-10</t>
-  </si>
-  <si>
     <t>CAST findings for Requirement 10 - Track and monitor all access to network resources and cardholder data</t>
   </si>
   <si>
     <t>CAST findings details for Requirement 10 - Track and monitor all access to network resources and cardholder data</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNO_LOC;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNICAL_SIZING;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Quality Standard</t>
+  </si>
+  <si>
+    <t>Total Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Added Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Removed Vulnerabilities</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=PCI-DSS-V3.1,MORE=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Remediation</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-1,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t>Violation Status</t>
+  </si>
+  <si>
+    <t>Associated Value</t>
+  </si>
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>Start Line</t>
+  </si>
+  <si>
+    <t>End Line</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-1,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-2,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-2,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-3,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-3,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-4,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-4,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-5,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-5,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-6,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-6,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-7,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-7,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-8,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-8,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=PCI-DSS-V3.1-Req-10,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-10,COUNT=-1,HEADER=NO</t>
   </si>
 </sst>
 </file>
@@ -417,7 +477,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -473,20 +533,24 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,7 +595,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>432089</xdr:colOff>
+      <xdr:colOff>30307</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -864,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O13"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,7 +940,7 @@
     <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -893,12 +957,12 @@
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -907,13 +971,13 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
         <v>4</v>
@@ -923,13 +987,13 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
         <v>2</v>
@@ -943,34 +1007,67 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D9" s="24"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -980,211 +1077,59 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7E084B-1D41-49A1-AAE8-65E5FD99EAE8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60019302-308A-442F-B9EA-3F649E847332}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184CFD3-505D-44C0-8258-50A02CF4F83B}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68947EEB-3915-46CA-938B-9EF94DC11C5F}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40429C24-E986-40B1-9C54-93D6527149C0}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB8EA9-CBE4-4B5D-A35C-7E148B322568}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398772F4-1EC0-446D-8794-6788C8DEC765}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,9 +1137,505 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60019302-308A-442F-B9EA-3F649E847332}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="99.44140625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184CFD3-505D-44C0-8258-50A02CF4F83B}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="88.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68947EEB-3915-46CA-938B-9EF94DC11C5F}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="106.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40429C24-E986-40B1-9C54-93D6527149C0}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="88.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="44.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB8EA9-CBE4-4B5D-A35C-7E148B322568}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398772F4-1EC0-446D-8794-6788C8DEC765}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="46.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33A766-BEF1-4CAD-9B15-BE530492E644}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="108.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BD317-0B61-41E3-8731-C4F691D2AAE1}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="88.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199839F1-7669-46C3-B6D9-CA145D3BFC5A}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1202,18 +1643,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="100.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>44</v>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1222,32 +1695,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BD317-0B61-41E3-8731-C4F691D2AAE1}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1255,26 +1757,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199839F1-7669-46C3-B6D9-CA145D3BFC5A}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00038B0F-4F74-4ACF-8A7F-FE15A067CF76}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="99" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>48</v>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1283,32 +1819,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C28B7BF-B505-460E-B5F5-CEF317C8DA21}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,28 +1881,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00038B0F-4F74-4ACF-8A7F-FE15A067CF76}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8D923-188E-4CB6-BF7E-B970F3C6E30D}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="98.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1346,32 +1943,185 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C28B7BF-B505-460E-B5F5-CEF317C8DA21}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79906E84-4B34-4770-9305-4F2F91D7EFE1}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC577CBB-D408-44A0-A911-378AA65DFFF8}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A10:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="99.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB41B1C-9240-4348-9FC9-45CED54B99B9}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1379,150 +2129,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8D923-188E-4CB6-BF7E-B970F3C6E30D}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEDA8E1-603E-4AFF-9626-7A5FC25447BA}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="99.21875" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79906E84-4B34-4770-9305-4F2F91D7EFE1}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC577CBB-D408-44A0-A911-378AA65DFFF8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB41B1C-9240-4348-9FC9-45CED54B99B9}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEDA8E1-603E-4AFF-9626-7A5FC25447BA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267307A8-D80C-45DA-94D6-2CCABCE68154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAE5DC4-DCA3-4480-9A95-87014BDEBE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Snapshot date:</t>
   </si>
   <si>
-    <t>Technical Debt:</t>
-  </si>
-  <si>
     <t>Generated on:</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_DATE</t>
   </si>
   <si>
-    <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
-  </si>
-  <si>
     <t>Application characteristics</t>
   </si>
   <si>
@@ -271,6 +265,12 @@
   </si>
   <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=PCI-DSS-V3.1-Req-10,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>ISO Technical Debt:</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
   </si>
 </sst>
 </file>
@@ -539,9 +539,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -551,6 +548,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,8 +594,8 @@
       <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30307</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1104034</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -931,38 +931,38 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -970,100 +970,100 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="D8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="25" t="s">
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1083,53 +1083,53 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1145,52 +1145,52 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.44140625" customWidth="1"/>
-    <col min="2" max="2" width="59.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1207,53 +1207,53 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,52 +1269,52 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="106.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1331,53 +1331,53 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1393,52 +1393,52 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1455,53 +1455,53 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="46.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1517,52 +1517,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="108.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="108.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1579,53 +1579,53 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1641,52 +1641,52 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.33203125" customWidth="1"/>
-    <col min="2" max="2" width="77.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.28515625" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1703,53 +1703,53 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1765,52 +1765,52 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="99" customWidth="1"/>
-    <col min="2" max="2" width="60.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1827,53 +1827,53 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1889,52 +1889,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.88671875" customWidth="1"/>
-    <col min="2" max="2" width="47.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1951,53 +1951,53 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2013,52 +2013,52 @@
       <selection activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2075,53 +2075,53 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2137,52 +2137,52 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.21875" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.28515625" customWidth="1"/>
+    <col min="2" max="2" width="87.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAE5DC4-DCA3-4480-9A95-87014BDEBE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8176375-DC3D-421B-8E11-2DEB2F8EBE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -174,9 +174,6 @@
     <t>Removed Vulnerabilities</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=PCI-DSS-V3.1,MORE=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>Rules</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=PCI-DSS-V3.1,MORE=true,HEADER=NO,EVOLUTION=true</t>
   </si>
 </sst>
 </file>
@@ -931,26 +931,26 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
@@ -996,16 +996,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1016,13 +1016,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>34</v>
       </c>
@@ -1038,12 +1038,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>35</v>
       </c>
@@ -1057,9 +1057,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1083,23 +1083,23 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="59.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -1111,18 +1111,18 @@
         <v>38</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1145,52 +1145,52 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="99.42578125" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.44140625" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1207,23 +1207,23 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -1235,18 +1235,18 @@
         <v>38</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1269,52 +1269,52 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="106.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="106.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1331,23 +1331,23 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -1359,18 +1359,18 @@
         <v>38</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1393,52 +1393,52 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+    <col min="1" max="1" width="98.44140625" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1455,23 +1455,23 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -1483,18 +1483,18 @@
         <v>38</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1517,52 +1517,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="108.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1579,23 +1579,23 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -1607,18 +1607,18 @@
         <v>38</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1641,52 +1641,52 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.28515625" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1703,23 +1703,23 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -1731,18 +1731,18 @@
         <v>38</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1765,52 +1765,52 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="99" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1827,23 +1827,23 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -1855,18 +1855,18 @@
         <v>38</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1889,52 +1889,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1951,23 +1951,23 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -1979,18 +1979,18 @@
         <v>38</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2013,52 +2013,52 @@
       <selection activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="99.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2075,23 +2075,23 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -2103,18 +2103,18 @@
         <v>38</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2137,52 +2137,52 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="99.28515625" customWidth="1"/>
-    <col min="2" max="2" width="87.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.33203125" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8176375-DC3D-421B-8E11-2DEB2F8EBE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B0524-7C86-4840-AFF0-29EADA6F4AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=PCI-DSS-V3.1,MORE=true,HEADER=NO,EVOLUTION=true</t>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=PCI-DSS-V3.1,HEADER=NO,EVOLUTION=true</t>
   </si>
 </sst>
 </file>
@@ -501,16 +501,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,10 +520,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -931,26 +931,26 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
@@ -1002,10 +1002,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1016,13 +1016,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>34</v>
       </c>
@@ -1038,12 +1038,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>35</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>71</v>
       </c>
@@ -1083,21 +1083,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>59</v>
       </c>
@@ -1145,24 +1145,24 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.44140625" customWidth="1"/>
-    <col min="2" max="2" width="59.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1207,21 +1207,21 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>61</v>
       </c>
@@ -1269,24 +1269,24 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="106.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1331,21 +1331,21 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>63</v>
       </c>
@@ -1393,24 +1393,24 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1455,21 +1455,21 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>65</v>
       </c>
@@ -1517,24 +1517,24 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="108.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="108.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1579,21 +1579,21 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>67</v>
       </c>
@@ -1641,24 +1641,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.33203125" customWidth="1"/>
-    <col min="2" max="2" width="77.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.28515625" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1703,21 +1703,21 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="44.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>43</v>
       </c>
@@ -1765,24 +1765,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="99" customWidth="1"/>
-    <col min="2" max="2" width="60.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1827,21 +1827,21 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>53</v>
       </c>
@@ -1889,24 +1889,24 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.88671875" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1951,21 +1951,21 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>55</v>
       </c>
@@ -2013,24 +2013,24 @@
       <selection activeCell="A11" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2075,21 +2075,21 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>57</v>
       </c>
@@ -2137,24 +2137,24 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.33203125" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.28515625" customWidth="1"/>
+    <col min="2" max="2" width="87.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/PCI-DSS-V3.1 Full Detailed Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B0524-7C86-4840-AFF0-29EADA6F4AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8E5750-0AAC-4C81-B486-555869B49925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,11 +35,11 @@
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -477,7 +477,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -551,6 +551,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,52 +600,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1160318</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>199158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1104034</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>950728</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E846EAAB-7F74-4614-8042-2CD937CA72CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="10226386" y="199158"/>
+          <a:ext cx="1054637" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -928,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,100 +980,108 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="D10" s="23"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+    <row r="14" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
